--- a/DKS-API/Resources/Template/TempRfidMaintain.xlsx
+++ b/DKS-API/Resources/Template/TempRfidMaintain.xlsx
@@ -76,8 +76,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -135,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,6 +156,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,13 +475,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="9" customWidth="1"/>
     <col min="3" max="3" width="37.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="47.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15" style="3" customWidth="1"/>
@@ -483,7 +493,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -503,7 +513,7 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
